--- a/excel/SampleUploadQTChucVuKiemNhiem.xlsx
+++ b/excel/SampleUploadQTChucVuKiemNhiem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GIT/namgold/gen-tool/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54C6788-DD1B-A04F-9DFD-2807D73B7ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E637F0EA-F216-824D-8E66-6CBA4F350B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15120" xr2:uid="{9123A972-410E-284E-85E8-1B0BFF6DB0E1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>SHCC</t>
   </si>
@@ -85,14 +85,201 @@
   </si>
   <si>
     <t xml:space="preserve"> SO_QD_THOI_KNHIEM</t>
+  </si>
+  <si>
+    <t>001778</t>
+  </si>
+  <si>
+    <t>001520</t>
+  </si>
+  <si>
+    <t>002130</t>
+  </si>
+  <si>
+    <t>001850</t>
+  </si>
+  <si>
+    <t>001939</t>
+  </si>
+  <si>
+    <t>002316</t>
+  </si>
+  <si>
+    <t>001917</t>
+  </si>
+  <si>
+    <t>002336</t>
+  </si>
+  <si>
+    <t>001921</t>
+  </si>
+  <si>
+    <t>002729</t>
+  </si>
+  <si>
+    <t>003036</t>
+  </si>
+  <si>
+    <t>001841</t>
+  </si>
+  <si>
+    <t>002475</t>
+  </si>
+  <si>
+    <t>002465</t>
+  </si>
+  <si>
+    <t>002468</t>
+  </si>
+  <si>
+    <t>2713/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Chương trình liên kết đào tạo Thạc sĩ Quản trị Kinh doanh với Trường Quản lý Maastricht, Hà Lan (Chương trình MSM)</t>
+  </si>
+  <si>
+    <t>2117/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Trung tâm Đào tạo và Phát triển nguồn nhân lực Đại học Bách khoa</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Trưởng phòng thí nghiệm trực thuộc trường</t>
+  </si>
+  <si>
+    <t>833/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Phòng TN trọng điểm ĐHQG-HCM  Nghiên cứu Cấu trúc Vật liệu (MANAR)</t>
+  </si>
+  <si>
+    <t>839/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Trung tâm NC Vật liệu Polyme</t>
+  </si>
+  <si>
+    <t>834/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Phòng TN Công nghệ Thiết kế và Gia công Tiên tiến</t>
+  </si>
+  <si>
+    <t>837/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Trung tâm CN Thông tin Địa lý</t>
+  </si>
+  <si>
+    <t>838/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Phòng TN trọng điểm ĐHQG-HCM Công nghệ Vật liệu</t>
+  </si>
+  <si>
+    <t>840/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Trung tâm NCCN Lọc - Hoá dầu</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Trưởng xưởng</t>
+  </si>
+  <si>
+    <t>349QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Khoa Cơ khí</t>
+  </si>
+  <si>
+    <t>Xưởng Cơ khí</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Trưởng Bộ môn</t>
+  </si>
+  <si>
+    <t>3684/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Khoa Kỹ thuật Địa chất và Dầu khí</t>
+  </si>
+  <si>
+    <t>Bộ môn Tài nguyên Trái đất và Môi trường</t>
+  </si>
+  <si>
+    <t>3559/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Khoa Điện - Điện tử</t>
+  </si>
+  <si>
+    <t>Bộ môn Cung cấp điện</t>
+  </si>
+  <si>
+    <t>3571/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Bộ môn Kỹ thuật Dệt may</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Trưởng phòng thí nghiệm trực thuộc khoa</t>
+  </si>
+  <si>
+    <t>3489/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Khoa Khoa học Ứng dụng</t>
+  </si>
+  <si>
+    <t>Phòng thí nghiệm Công nghệ Laser</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Phó Trưởng phòng</t>
+  </si>
+  <si>
+    <t>2917/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Phòng Quản trị - Thiết bị</t>
+  </si>
+  <si>
+    <t>2916/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Phòng Công tác Chính trị - Sinh viên</t>
+  </si>
+  <si>
+    <t>3674/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>Khoa Kỹ thuật Hóa học</t>
+  </si>
+  <si>
+    <t>Bộ môn Kỹ thuật Hóa lý</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -134,7 +321,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,12 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -197,9 +378,41 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,33 +728,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7A1D53-F549-0940-A9E3-DE0AADEB1BB3}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="131.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="100.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="121.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -553,7 +766,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -571,15 +784,15 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -588,27 +801,603 @@
       <c r="D2" s="5">
         <v>43728</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="17">
         <v>43728</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7">
         <v>43728</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="18">
+        <v>43728</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43683</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="18">
+        <v>43683</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43563</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="18">
+        <v>43560</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43563</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="18">
+        <v>43560</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43563</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="18">
+        <v>43560</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43563</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18">
+        <v>43560</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43563</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="18">
+        <v>43560</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43563</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="18">
+        <v>43560</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43515</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="18">
+        <v>43515</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43440</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="18">
+        <v>43440</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43431</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="18">
+        <v>43431</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43431</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="18">
+        <v>43431</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="7">
+        <v>43431</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="18">
+        <v>43431</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43388</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="18">
+        <v>43385</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43388</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="18">
+        <v>43385</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8">
+        <v>43440</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="19">
+        <v>43440</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>43773</v>
       </c>
     </row>
   </sheetData>
